--- a/Variables_of_importance.xlsx
+++ b/Variables_of_importance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tay_w\Documents\GitHub\IND5003-Group-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337BF48F-DA2A-4B6B-AFFF-9CBE141E8951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB86DDA-E766-4503-9B6D-7354B53A1616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46365" yWindow="5280" windowWidth="21600" windowHeight="11340" xr2:uid="{B4B6DA73-DEED-49E8-8A55-61AFB6DEB1A7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4B6DA73-DEED-49E8-8A55-61AFB6DEB1A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="328">
   <si>
     <t>Code</t>
   </si>
@@ -373,14 +373,658 @@
   </si>
   <si>
     <t>2345 readings</t>
+  </si>
+  <si>
+    <t>DID040</t>
+  </si>
+  <si>
+    <t>How old {was SP/were you} when a doctor or other health professional first told {you/him/her} that {you/he/she} had diabetes or sugar diabetes?</t>
+  </si>
+  <si>
+    <t>DIQ160</t>
+  </si>
+  <si>
+    <t>{Have you/Has SP} ever been told by a doctor or other health professional that {you have/SP has} any of the following: prediabetes, impaired fasting glucose, impaired glucose tolerance, borderline diabetes or that {your/her/his} blood sugar is higher than normal but not high enough to be called diabetes or sugar diabetes?</t>
+  </si>
+  <si>
+    <t>DIQ170</t>
+  </si>
+  <si>
+    <t>{Have you/Has SP} ever been told by a doctor or other health professional that {you have/s/he has} health conditions or a medical or family history that increases {your/his/her} risk for diabetes?</t>
+  </si>
+  <si>
+    <t>DIQ172</t>
+  </si>
+  <si>
+    <t>{Do you/Does SP} feel {you/he/she} could be at risk for diabetes or prediabetes?</t>
+  </si>
+  <si>
+    <t>DIQ175A</t>
+  </si>
+  <si>
+    <t>Why {Do you/Does SP} think {you are/he is/she is} at risk for diabetes or prediabetes? [Anything else?] DIQ175A - Family history</t>
+  </si>
+  <si>
+    <t>DIQ175B</t>
+  </si>
+  <si>
+    <t>Why {Do you/Does SP} think {you are/he is/she is} at risk for diabetes or prediabetes? [Anything else?] DIQ175B - Overweight</t>
+  </si>
+  <si>
+    <t>DIQ175C</t>
+  </si>
+  <si>
+    <t>Why {Do you/Does SP} think {you are/he is/she is} at risk for diabetes or prediabetes? [Anything else?] DIQ175C - Age</t>
+  </si>
+  <si>
+    <t>DIQ175D</t>
+  </si>
+  <si>
+    <t>Why {Do you/Does SP} think {you are/he is/she is} at risk for diabetes or prediabetes? [Anything else?] DIQ175D - Poor diet</t>
+  </si>
+  <si>
+    <t>DIQ175E</t>
+  </si>
+  <si>
+    <t>Why {Do you/Does SP} think {you are/he is/she is} at risk for diabetes or prediabetes? [Anything else?] DIQ175E - Race</t>
+  </si>
+  <si>
+    <t>DIQ175F</t>
+  </si>
+  <si>
+    <t>Why {Do you/Does SP} think {you are/he is/she is} at risk for diabetes or prediabetes? [Anything else?] DIQ175F - Had a baby weighed over 9 lbs. at birth</t>
+  </si>
+  <si>
+    <t>DIQ175G</t>
+  </si>
+  <si>
+    <t>Why {Do you/Does SP} think {you are/he is/she is} at risk for diabetes or prediabetes? [Anything else?] DIQ175G - Lack of physical activity</t>
+  </si>
+  <si>
+    <t>DIQ175H</t>
+  </si>
+  <si>
+    <t>Why {Do you/Does SP} think {you are/he is/she is} at risk for diabetes or prediabetes? [Anything else?] DIQ175H - High blood pressure</t>
+  </si>
+  <si>
+    <t>DIQ175I</t>
+  </si>
+  <si>
+    <t>Why {Do you/Does SP} think {you are/he is/she is} at risk for diabetes or prediabetes? [Anything else?] DIQ175I - High blood sugar</t>
+  </si>
+  <si>
+    <t>DIQ175J</t>
+  </si>
+  <si>
+    <t>Why {Do you/Does SP} think {you are/he is/she is} at risk for diabetes or prediabetes? [Anything else?] DIQ175J - High cholesterol</t>
+  </si>
+  <si>
+    <t>DIQ175K</t>
+  </si>
+  <si>
+    <t>Why {Do you/Does SP} think {you are/he is/she is} at risk for diabetes or prediabetes? [Anything else?] DIQ175K - Hypoglycemic</t>
+  </si>
+  <si>
+    <t>DIQ175L</t>
+  </si>
+  <si>
+    <t>Why {Do you/Does SP} think {you are/he is/she is} at risk for diabetes or prediabetes? [Anything else?] DIQ175L - Extreme hunger</t>
+  </si>
+  <si>
+    <t>DIQ175M</t>
+  </si>
+  <si>
+    <t>Why {Do you/Does SP} think {you are/he is/she is} at risk for diabetes or prediabetes? [Anything else?] DIQ175M - Tingling/numbness in hands or feet</t>
+  </si>
+  <si>
+    <t>DIQ175N</t>
+  </si>
+  <si>
+    <t>Why {Do you/Does SP} think {you are/he is/she is} at risk for diabetes or prediabetes? [Anything else?] DIQ175N - Blurred vision</t>
+  </si>
+  <si>
+    <t>DIQ175O</t>
+  </si>
+  <si>
+    <t>Why {Do you/Does SP} think {you are/he is/she is} at risk for diabetes or prediabetes? [Anything else?] DIQ175O - Increased fatigue</t>
+  </si>
+  <si>
+    <t>DIQ175P</t>
+  </si>
+  <si>
+    <t>Why {Do you/Does SP} think {you are/he is/she is} at risk for diabetes or prediabetes? [Anything else?] DIQ175P - Anyone could be at risk</t>
+  </si>
+  <si>
+    <t>DIQ175Q</t>
+  </si>
+  <si>
+    <t>Why {Do you/Does SP} think {you are/he is/she is} at risk for diabetes or prediabetes? [Anything else?] DIQ175Q - Doctor warning</t>
+  </si>
+  <si>
+    <t>DIQ175R</t>
+  </si>
+  <si>
+    <t>Why {Do you/Does SP} think {you are/he is/she is} at risk for diabetes or prediabetes? [Anything else?] DIQ175R - Other, specify</t>
+  </si>
+  <si>
+    <t>DIQ175S</t>
+  </si>
+  <si>
+    <t>Why {Do you/Does SP} think {you are/he is/she is} at risk for diabetes or prediabetes? [Anything else?] DIQ175S - Gestational diabetes</t>
+  </si>
+  <si>
+    <t>DIQ175T</t>
+  </si>
+  <si>
+    <t>Why {Do you/Does SP} think {you are/he is/she is} at risk for diabetes or prediabetes? [Anything else?] DIQ175T - Frequent urination</t>
+  </si>
+  <si>
+    <t>DIQ175U</t>
+  </si>
+  <si>
+    <t>Why {Do you/Does SP} think {you are/he is/she is} at risk for diabetes or prediabetes? [Anything else?] DIQ175U - Thirst</t>
+  </si>
+  <si>
+    <t>DIQ175V</t>
+  </si>
+  <si>
+    <t>Why {Do you/Does SP} think {you are/he is/she is} at risk for diabetes or prediabetes? DIQ175V - Craving for sweet/eating a lot of sugar</t>
+  </si>
+  <si>
+    <t>DIQ180</t>
+  </si>
+  <si>
+    <t>{Have you/Has SP} had a blood test for high blood sugar or diabetes within the past three years?</t>
+  </si>
+  <si>
+    <t>DIQ050</t>
+  </si>
+  <si>
+    <t>{Is SP/Are you} now taking insulin</t>
+  </si>
+  <si>
+    <t>DID060</t>
+  </si>
+  <si>
+    <t>For how long {have you/has SP} been taking insulin?</t>
+  </si>
+  <si>
+    <t>DIQ060U</t>
+  </si>
+  <si>
+    <t>UNIT OF MEASURE (Months/Years UOM for question DID060)</t>
+  </si>
+  <si>
+    <t>DIQ070</t>
+  </si>
+  <si>
+    <t>{Is SP/Are you} now taking diabetic pills to lower {{his/her}/your} blood sugar? These are sometimes called oral agents or oral hypoglycemic agents.</t>
+  </si>
+  <si>
+    <t>DIQ230</t>
+  </si>
+  <si>
+    <t>When was the last time {you/SP} saw a diabetes nurse educator or dietitian or nutritionist for {your/his/her} diabetes? Do not include doctors or other health professionals.</t>
+  </si>
+  <si>
+    <t>DIQ240</t>
+  </si>
+  <si>
+    <t>Is there one doctor or other health professional {you usually see/SP usually sees} for {your/his/her} diabetes? Do not include specialists to whom {you have/SP has} been referred such as diabetes educators, dieticians or foot and eye doctors.</t>
+  </si>
+  <si>
+    <t>DID250</t>
+  </si>
+  <si>
+    <t>How many times {have you/has SP} seen this doctor or other health professional in the past 12 months?</t>
+  </si>
+  <si>
+    <t>DID260</t>
+  </si>
+  <si>
+    <t>How often {do you check your/does SP check his/her} blood for glucose or sugar? Include times when checked by a family member or friend, but do not include times when checked by a doctor or other health professional.</t>
+  </si>
+  <si>
+    <t>DIQ260U</t>
+  </si>
+  <si>
+    <t>DIQ275</t>
+  </si>
+  <si>
+    <t>Glycosylated (GLY-KOH-SIH-LAY-TED) hemoglobin or the "A one C" test measures your average level of blood sugar for the past 3 months, and usually ranges between 5.0 and 13.9. During the past 12 months, has a doctor or other health professional checked {your/SP's} glycosylated hemoglobin or "A one C"?</t>
+  </si>
+  <si>
+    <t>DBD895</t>
+  </si>
+  <si>
+    <t>Next I'm going to ask you about meals. By meal, I mean breakfast, lunch and dinner. During the past 7 days, how many meals {did you/did SP} get that were prepared away from home in places such as restaurants, fast food places, food stands, grocery stores, or from vending machines? {Please do not include meals provided as part of the school lunch or school breakfast./Please do not include meals provided as part of the community programs you reported earlier.}</t>
+  </si>
+  <si>
+    <t>DBD900</t>
+  </si>
+  <si>
+    <t>How many of those meals {did you/did SP} get from a fast-food or pizza place?</t>
+  </si>
+  <si>
+    <t>DBD905</t>
+  </si>
+  <si>
+    <t>Some grocery stores sell "ready to eat" foods such as salads, soups, chicken, sandwiches and cooked vegetables in their salad bars and deli counters. During the past 30 days, how often did {you/SP} eat "ready to eat" foods from the grocery store? Please do not include sliced meat or cheese you buy for sandwiches and frozen or canned foods.</t>
+  </si>
+  <si>
+    <t>DBD910</t>
+  </si>
+  <si>
+    <t>During the past 30 days, how often did you {SP} eat frozen meals or frozen pizzas? Here are some examples of frozen meals and frozen pizzas.</t>
+  </si>
+  <si>
+    <t>CBQ596</t>
+  </si>
+  <si>
+    <t>Next I'm going to ask a few questions about the nutritional guidelines recommended for Americans by the federal government. {Have you/Has SP} heard of My Plate?</t>
+  </si>
+  <si>
+    <t>CBQ606</t>
+  </si>
+  <si>
+    <t>{Have you/Has SP} looked up the My Plate plan on the internet?</t>
+  </si>
+  <si>
+    <t>CBQ611</t>
+  </si>
+  <si>
+    <t>{Have you/Has SP} tried to follow the recommendations in the My Plate plan?</t>
+  </si>
+  <si>
+    <t>DIQ010</t>
+  </si>
+  <si>
+    <t>The next questions are about specific medical conditions. {Other than during pregnancy, {have you/has SP}/{Have you/Has SP}} ever been told by a doctor or health professional that {you have/{he/she/SP} has} diabetes or sugar diabetes?</t>
+  </si>
+  <si>
+    <t>Indicates # of times food consumed outside</t>
+  </si>
+  <si>
+    <t>Indicates # of times food consumed from unhealthy sources</t>
+  </si>
+  <si>
+    <t>Indicates # of times food consumed falls within healthy category</t>
+  </si>
+  <si>
+    <t>Indicates # of times processed frozen food is consumed</t>
+  </si>
+  <si>
+    <t>Indicates nutritional knowledge/awareness</t>
+  </si>
+  <si>
+    <t>CBQ505</t>
+  </si>
+  <si>
+    <t>{I'll tell you when you will need it.} For the first few questions, please answer yes or no. In the past 12 months, did you buy food from fast food or pizza places? SP interview version: In the past 12 months, did {you/SP} buy food from fast food or pizza places?</t>
+  </si>
+  <si>
+    <t>CBQ535</t>
+  </si>
+  <si>
+    <t>The last time when you ate out or bought food at a fast-food or pizza place, did you see nutrition or health information about any foods on the menu? SP interview version: The last time when {you/SP} ate out or bought food at a fast-food or pizza place, did {you/he/she} see nutrition or health information about any foods on the menu?</t>
+  </si>
+  <si>
+    <t>CBQ540</t>
+  </si>
+  <si>
+    <t>Did you use the information in deciding which foods to buy? SP interview version: Did {you/SP} use the information in deciding which foods to buy?</t>
+  </si>
+  <si>
+    <t>CBQ545</t>
+  </si>
+  <si>
+    <t>{Please open your hand card booklet and turn to hand card 1 to answer the next question.} If nutrition or health information were readily available in fast food or pizza places, would you use it often, sometimes, rarely, or never, in deciding what to order? SP interview version: If nutrition or health information were readily available in fast food or pizza places, would {you/SP} use it often, sometimes, rarely, or never, in deciding what to order?</t>
+  </si>
+  <si>
+    <t>FSD151</t>
+  </si>
+  <si>
+    <t>In the last 12 months, did {you/you or any member of your household} ever get emergency food from a church, a food pantry, or a food bank, or eat in a soup kitchen?</t>
+  </si>
+  <si>
+    <t>FSQ165</t>
+  </si>
+  <si>
+    <t>The next questions are about SNAP, the Supplemental Nutrition Assistance Program, formerly known as the Food Stamp Program. SNAP benefits are provided on an electronic debit card {or EBT card} {called the DISPLAY STATE NAME FOR EBT CARD}} card in STATE}. Have {you/you or anyone in your household} ever received SNAP or Food Stamp benefits?</t>
+  </si>
+  <si>
+    <t>FSQ012</t>
+  </si>
+  <si>
+    <t>In the last 12 months, did {you/you or any member of your household} receive SNAP or Food Stamp benefits?</t>
+  </si>
+  <si>
+    <t>FSD012N</t>
+  </si>
+  <si>
+    <t>In the last 12 months, how many people in your household received SNAP or Food Stamp benefits?</t>
+  </si>
+  <si>
+    <t>FSD230</t>
+  </si>
+  <si>
+    <t>{Do you/Does any member of your household} currently receive SNAP or Food Stamp benefits?</t>
+  </si>
+  <si>
+    <t>FSD225</t>
+  </si>
+  <si>
+    <t>Number of days between the time the household last received Food Stamp benefit and the date of interview.</t>
+  </si>
+  <si>
+    <t>FSQ235</t>
+  </si>
+  <si>
+    <t>How much did {you/your household} receive in food stamp benefits the last time you got them? ENTER DOLLAR AMOUNT.</t>
+  </si>
+  <si>
+    <t>Indicative of SES status</t>
+  </si>
+  <si>
+    <t>DBQ700</t>
+  </si>
+  <si>
+    <t>Next I have some questions about {your/SP?s} eating habits. In general, how healthy is {your/his/her} overall diet? Would you say . . .</t>
+  </si>
+  <si>
+    <t>Self-perceived dietary quality</t>
+  </si>
+  <si>
+    <t>DPQ010</t>
+  </si>
+  <si>
+    <t>Over the last 2 weeks, how often have you been bothered by the following problems: little interest or pleasure in doing things? Would you say...</t>
+  </si>
+  <si>
+    <t>DPQ020</t>
+  </si>
+  <si>
+    <t>[Over the last 2 weeks, how often have you been bothered by the following problems:] feeling down, depressed, or hopeless?</t>
+  </si>
+  <si>
+    <t>DPQ030</t>
+  </si>
+  <si>
+    <t>[Over the last 2 weeks, how often have you been bothered by the following problems:] trouble falling or staying asleep, or sleeping too much?</t>
+  </si>
+  <si>
+    <t>DPQ040</t>
+  </si>
+  <si>
+    <t>[Over the last 2 weeks, how often have you been bothered by the following problems:] feeling tired or having little energy?</t>
+  </si>
+  <si>
+    <t>DPQ050</t>
+  </si>
+  <si>
+    <t>[Over the last 2 weeks, how often have you been bothered by the following problems:] poor appetite or overeating?</t>
+  </si>
+  <si>
+    <t>DPQ060</t>
+  </si>
+  <si>
+    <t>[Over the last 2 weeks, how often have you been bothered by the following problems:] feeling bad about yourself - or that you are a failure or have let yourself or your family down?</t>
+  </si>
+  <si>
+    <t>DPQ070</t>
+  </si>
+  <si>
+    <t>[Over the last 2 weeks, how often have you been bothered by the following problems:] trouble concentrating on things, such as reading the newspaper or watching TV?</t>
+  </si>
+  <si>
+    <t>DPQ080</t>
+  </si>
+  <si>
+    <t>[Over the last 2 weeks, how often have you been bothered by the following problems:] moving or speaking so slowly that other people could have noticed? Or the opposite - being so fidgety or restless that you have been moving around a lot more than usual?</t>
+  </si>
+  <si>
+    <t>DPQ090</t>
+  </si>
+  <si>
+    <t>Over the last 2 weeks, how often have you been bothered by the following problems: Thoughts that you would be better off dead or of hurting yourself in some way?</t>
+  </si>
+  <si>
+    <t>DPQ100</t>
+  </si>
+  <si>
+    <t>How difficult have these problems made it for you to do your work, take care of things at home, or get along with people?</t>
+  </si>
+  <si>
+    <t>Mental health - Tabulate into mental health score and correlate with diabetes</t>
+  </si>
+  <si>
+    <t>Consider removing as this not useful for diagnosing new diabetics?</t>
+  </si>
+  <si>
+    <t>737 respondents - Target variable for diabetes/non-diabetes?</t>
+  </si>
+  <si>
+    <t>Increased risk as identified by health professional</t>
+  </si>
+  <si>
+    <t>Self-perceived diabetes risk</t>
+  </si>
+  <si>
+    <t>PAQ605</t>
+  </si>
+  <si>
+    <t>Next I am going to ask you about the time {you spend/SP spends} doing different types of physical activity in a typical week. Think first about the time {you spend/he spends/she spends} doing work. Think of work as the things that {you have/he has/she has} to do such as paid or unpaid work, household chores, and yard work. Does {your/SP's} work involve vigorous-intensity activity that causes large increases in breathing or heart rate like carrying or lifting heavy loads, digging or construction work for at least 10 minutes continuously?</t>
+  </si>
+  <si>
+    <t>PAQ610</t>
+  </si>
+  <si>
+    <t>In a typical week, on how many days {do you/does SP} do vigorous-intensity activities as part of {your/his/her} work?</t>
+  </si>
+  <si>
+    <t>PAD615</t>
+  </si>
+  <si>
+    <t>How much time {do you/does SP} spend doing vigorous-intensity activities at work on a typical day?</t>
+  </si>
+  <si>
+    <t>PAQ620</t>
+  </si>
+  <si>
+    <t>Does {your/SP's} work involve moderate-intensity activity that causes small increases in breathing or heart rate such as brisk walking or carrying light loads for at least 10 minutes continuously?</t>
+  </si>
+  <si>
+    <t>PAQ625</t>
+  </si>
+  <si>
+    <t>In a typical week, on how many days {do you/does SP} do moderate-intensity activities as part of {your/his/her} work?</t>
+  </si>
+  <si>
+    <t>PAD630</t>
+  </si>
+  <si>
+    <t>How much time {do you/does SP} spend doing moderate-intensity activities at work on a typical day?</t>
+  </si>
+  <si>
+    <t>PAQ635</t>
+  </si>
+  <si>
+    <t>The next questions exclude the physical activity at work that you have already mentioned. Now I would like to ask you about the usual way {you travel/SP travels} to and from places. For example to school, for shopping, to work. In a typical week {do you/does SP} walk or use a bicycle for at least 10 minutes continuously to get to and from places?</t>
+  </si>
+  <si>
+    <t>PAQ640</t>
+  </si>
+  <si>
+    <t>In a typical week, on how many days {do you/does SP} walk or bicycle for at least 10 minutes continuously to get to and from places?</t>
+  </si>
+  <si>
+    <t>PAD645</t>
+  </si>
+  <si>
+    <t>How much time {do you/does SP} spend walking or bicycling for travel on a typical day?</t>
+  </si>
+  <si>
+    <t>PAQ650</t>
+  </si>
+  <si>
+    <t>The next questions exclude the work and transport activities that you have already mentioned. Now I would like to ask you about sports, fitness and recreational activities. In a typical week {do you/does SP} do any vigorous-intensity sports, fitness, or recreational activities that cause large increases in breathing or heart rate like running or basketball for at least 10 minutes continuously?</t>
+  </si>
+  <si>
+    <t>PAQ655</t>
+  </si>
+  <si>
+    <t>In a typical week, on how many days {do you/does SP} do vigorous-intensity sports, fitness or recreational activities?</t>
+  </si>
+  <si>
+    <t>PAD660</t>
+  </si>
+  <si>
+    <t>How much time {do you/does SP} spend doing vigorous-intensity sports, fitness or recreational activities on a typical day?</t>
+  </si>
+  <si>
+    <t>PAQ665</t>
+  </si>
+  <si>
+    <t>In a typical week {do you/does SP} do any moderate-intensity sports, fitness, or recreational activities that cause a small increase in breathing or heart rate such as brisk walking, bicycling, swimming, or volleyball for at least 10 minutes continuously?</t>
+  </si>
+  <si>
+    <t>PAQ670</t>
+  </si>
+  <si>
+    <t>In a typical week, on how many days {do you/does SP} do moderate-intensity sports, fitness or recreational activities?</t>
+  </si>
+  <si>
+    <t>PAD675</t>
+  </si>
+  <si>
+    <t>How much time {do you/does SP} spend doing moderate-intensity sports, fitness or recreational activities on a typical day?</t>
+  </si>
+  <si>
+    <t>PAD680</t>
+  </si>
+  <si>
+    <t>The following question is about sitting at school, at home, getting to and from places, or with friends including time spent sitting at a desk, traveling in a car or bus, reading, playing cards, watching television, or using a computer. Do not include time spent sleeping. How much time {do you/does SP} usually spend sitting on a typical day?</t>
+  </si>
+  <si>
+    <t>PAQ706</t>
+  </si>
+  <si>
+    <t>I'd like to ask you some questions about {your/SP's} activities. During the past 7 days, on how many days {were you/was SP} physically active for a total of at least 60 minutes per day? Add up all the time {you/he/she} spent in any kind of physical activity that increased {your/his/her} heart rate and made {you/him/her} breathe hard some of the time.</t>
+  </si>
+  <si>
+    <t>PAQ710</t>
+  </si>
+  <si>
+    <t>Now I will ask you first about TV watching and then about computer use. Over the past 30 days, on average how many hours per day did {you/SP} sit and watch TV or videos? Would you say . . .</t>
+  </si>
+  <si>
+    <t>PAQ715</t>
+  </si>
+  <si>
+    <t>Over the past 30 days, on average how many hours per day did {you/SP} use a computer or play computer games outside of school? Include Playstation, Nintendo DS, or other portable video games Would you say . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHQ070 </t>
+  </si>
+  <si>
+    <t>Tried to lose weight in past year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHQ030 </t>
+  </si>
+  <si>
+    <t>How do you consider your weight</t>
+  </si>
+  <si>
+    <t>Self perception of weight and health</t>
+  </si>
+  <si>
+    <t>Identifying intent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBDHDDSI </t>
+  </si>
+  <si>
+    <t>Direct HDL-Cholesterol (mmol/L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBDTRSI </t>
+  </si>
+  <si>
+    <t>Triglyceride (mmol/L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBDLDLSI </t>
+  </si>
+  <si>
+    <t>LDL-cholesterol (mmol/L)</t>
+  </si>
+  <si>
+    <t>3105 readings</t>
+  </si>
+  <si>
+    <t>3146 readings</t>
+  </si>
+  <si>
+    <t>7624 readings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBDTCSI </t>
+  </si>
+  <si>
+    <t>Total Cholesterol( mmol/L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBXIN </t>
+  </si>
+  <si>
+    <t>Insulin (uU/mL)</t>
+  </si>
+  <si>
+    <t>3093 readings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHAFSTMN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total length of 'food fast', minutes </t>
+  </si>
+  <si>
+    <t>To attenuate fasting glucose levels (LBDGLUSI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBXVIDMS </t>
+  </si>
+  <si>
+    <t>8437 readings</t>
+  </si>
+  <si>
+    <t>Vitamin D levels 25OHD2+25OHD3 (nmol/L)</t>
+  </si>
+  <si>
+    <t>Total length of 'food fast', minutes</t>
+  </si>
+  <si>
+    <t>To attenuate fasting insulin levels (LBXIN)</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -408,8 +1052,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,27 +1372,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716A7EE8-5A97-4A9E-B2AD-A8EFFA1D3E8E}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="115.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="120.5703125" customWidth="1"/>
     <col min="4" max="4" width="83.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -848,72 +1500,60 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -921,10 +1561,10 @@
         <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -932,10 +1572,10 @@
         <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -943,10 +1583,10 @@
         <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -954,68 +1594,68 @@
         <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1023,13 +1663,10 @@
         <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1037,10 +1674,10 @@
         <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1048,10 +1685,10 @@
         <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1059,10 +1696,10 @@
         <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1070,10 +1707,10 @@
         <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1081,10 +1718,13 @@
         <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1092,10 +1732,13 @@
         <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>84</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1103,10 +1746,13 @@
         <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>88</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1114,10 +1760,13 @@
         <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1125,10 +1774,13 @@
         <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1136,13 +1788,13 @@
         <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1150,13 +1802,10 @@
         <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1164,13 +1813,13 @@
         <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1178,13 +1827,13 @@
         <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1192,80 +1841,83 @@
         <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>113</v>
+      </c>
+      <c r="D39" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>319</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>305</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>306</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>307</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>308</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1273,13 +1925,13 @@
         <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>309</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>310</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1287,18 +1939,1213 @@
         <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>314</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" t="s">
+        <v>316</v>
+      </c>
+      <c r="C45" t="s">
+        <v>317</v>
+      </c>
+      <c r="D45" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" t="s">
+        <v>319</v>
+      </c>
+      <c r="C46" t="s">
+        <v>325</v>
+      </c>
+      <c r="D46" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" t="s">
+        <v>322</v>
+      </c>
+      <c r="C47" t="s">
+        <v>324</v>
+      </c>
+      <c r="D47" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" t="s">
+        <v>233</v>
+      </c>
+      <c r="C48" t="s">
+        <v>234</v>
+      </c>
+      <c r="D48" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" t="s">
+        <v>116</v>
+      </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>117</v>
+      </c>
+      <c r="D50" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" t="s">
+        <v>162</v>
+      </c>
+      <c r="C73" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" t="s">
+        <v>166</v>
+      </c>
+      <c r="C75" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" t="s">
+        <v>170</v>
+      </c>
+      <c r="C77" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" t="s">
+        <v>172</v>
+      </c>
+      <c r="C78" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>33</v>
+      </c>
+      <c r="B79" t="s">
+        <v>174</v>
+      </c>
+      <c r="C79" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" t="s">
+        <v>176</v>
+      </c>
+      <c r="C80" t="s">
+        <v>177</v>
+      </c>
+      <c r="D80" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" t="s">
+        <v>178</v>
+      </c>
+      <c r="C81" t="s">
+        <v>179</v>
+      </c>
+      <c r="D81" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>33</v>
+      </c>
+      <c r="B82" t="s">
+        <v>180</v>
+      </c>
+      <c r="C82" t="s">
+        <v>181</v>
+      </c>
+      <c r="D82" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" t="s">
+        <v>182</v>
+      </c>
+      <c r="C83" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" t="s">
+        <v>184</v>
+      </c>
+      <c r="C84" t="s">
+        <v>185</v>
+      </c>
+      <c r="D84" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" t="s">
+        <v>186</v>
+      </c>
+      <c r="C85" t="s">
+        <v>185</v>
+      </c>
+      <c r="D85" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86" t="s">
+        <v>188</v>
+      </c>
+      <c r="D86" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" t="s">
+        <v>189</v>
+      </c>
+      <c r="C87" t="s">
+        <v>190</v>
+      </c>
+      <c r="D87" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" t="s">
+        <v>191</v>
+      </c>
+      <c r="C88" t="s">
+        <v>192</v>
+      </c>
+      <c r="D88" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89" t="s">
+        <v>194</v>
+      </c>
+      <c r="D89" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" t="s">
+        <v>196</v>
+      </c>
+      <c r="D90" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" t="s">
+        <v>198</v>
+      </c>
+      <c r="D91" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" t="s">
+        <v>199</v>
+      </c>
+      <c r="C92" t="s">
+        <v>200</v>
+      </c>
+      <c r="D92" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" t="s">
+        <v>201</v>
+      </c>
+      <c r="C93" t="s">
+        <v>202</v>
+      </c>
+      <c r="D93" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" t="s">
+        <v>210</v>
+      </c>
+      <c r="C94" t="s">
+        <v>211</v>
+      </c>
+      <c r="D94" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" t="s">
+        <v>212</v>
+      </c>
+      <c r="C95" t="s">
+        <v>213</v>
+      </c>
+      <c r="D95" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96" t="s">
+        <v>214</v>
+      </c>
+      <c r="C96" t="s">
+        <v>215</v>
+      </c>
+      <c r="D96" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>33</v>
+      </c>
+      <c r="B97" t="s">
+        <v>216</v>
+      </c>
+      <c r="C97" t="s">
+        <v>217</v>
+      </c>
+      <c r="D97" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" t="s">
+        <v>218</v>
+      </c>
+      <c r="C98" t="s">
+        <v>219</v>
+      </c>
+      <c r="D98" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" t="s">
+        <v>220</v>
+      </c>
+      <c r="C99" t="s">
+        <v>221</v>
+      </c>
+      <c r="D99" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" t="s">
+        <v>222</v>
+      </c>
+      <c r="C100" t="s">
+        <v>223</v>
+      </c>
+      <c r="D100" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>33</v>
+      </c>
+      <c r="B101" t="s">
+        <v>224</v>
+      </c>
+      <c r="C101" t="s">
+        <v>225</v>
+      </c>
+      <c r="D101" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" t="s">
+        <v>226</v>
+      </c>
+      <c r="C102" t="s">
+        <v>227</v>
+      </c>
+      <c r="D102" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>33</v>
+      </c>
+      <c r="B103" t="s">
+        <v>228</v>
+      </c>
+      <c r="C103" t="s">
+        <v>229</v>
+      </c>
+      <c r="D103" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>33</v>
+      </c>
+      <c r="B104" t="s">
+        <v>230</v>
+      </c>
+      <c r="C104" t="s">
+        <v>231</v>
+      </c>
+      <c r="D104" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" t="s">
+        <v>236</v>
+      </c>
+      <c r="C105" t="s">
+        <v>237</v>
+      </c>
+      <c r="D105" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106" t="s">
+        <v>238</v>
+      </c>
+      <c r="C106" t="s">
+        <v>239</v>
+      </c>
+      <c r="D106" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107" t="s">
+        <v>240</v>
+      </c>
+      <c r="C107" t="s">
+        <v>241</v>
+      </c>
+      <c r="D107" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108" t="s">
+        <v>242</v>
+      </c>
+      <c r="C108" t="s">
+        <v>243</v>
+      </c>
+      <c r="D108" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>33</v>
+      </c>
+      <c r="B109" t="s">
+        <v>244</v>
+      </c>
+      <c r="C109" t="s">
+        <v>245</v>
+      </c>
+      <c r="D109" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" t="s">
+        <v>246</v>
+      </c>
+      <c r="C110" t="s">
+        <v>247</v>
+      </c>
+      <c r="D110" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111" t="s">
+        <v>248</v>
+      </c>
+      <c r="C111" t="s">
+        <v>249</v>
+      </c>
+      <c r="D111" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>33</v>
+      </c>
+      <c r="B112" t="s">
+        <v>250</v>
+      </c>
+      <c r="C112" t="s">
+        <v>251</v>
+      </c>
+      <c r="D112" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>33</v>
+      </c>
+      <c r="B113" t="s">
+        <v>252</v>
+      </c>
+      <c r="C113" t="s">
+        <v>253</v>
+      </c>
+      <c r="D113" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>33</v>
+      </c>
+      <c r="B114" t="s">
+        <v>254</v>
+      </c>
+      <c r="C114" t="s">
+        <v>255</v>
+      </c>
+      <c r="D114" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>33</v>
+      </c>
+      <c r="B115" t="s">
+        <v>261</v>
+      </c>
+      <c r="C115" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>33</v>
+      </c>
+      <c r="B116" t="s">
+        <v>263</v>
+      </c>
+      <c r="C116" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>33</v>
+      </c>
+      <c r="B117" t="s">
+        <v>265</v>
+      </c>
+      <c r="C117" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>33</v>
+      </c>
+      <c r="B118" t="s">
+        <v>267</v>
+      </c>
+      <c r="C118" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>33</v>
+      </c>
+      <c r="B119" t="s">
+        <v>269</v>
+      </c>
+      <c r="C119" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>33</v>
+      </c>
+      <c r="B120" t="s">
+        <v>271</v>
+      </c>
+      <c r="C120" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>33</v>
+      </c>
+      <c r="B121" t="s">
+        <v>273</v>
+      </c>
+      <c r="C121" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>33</v>
+      </c>
+      <c r="B122" t="s">
+        <v>275</v>
+      </c>
+      <c r="C122" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>33</v>
+      </c>
+      <c r="B123" t="s">
+        <v>277</v>
+      </c>
+      <c r="C123" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>33</v>
+      </c>
+      <c r="B124" t="s">
+        <v>279</v>
+      </c>
+      <c r="C124" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>33</v>
+      </c>
+      <c r="B125" t="s">
+        <v>281</v>
+      </c>
+      <c r="C125" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>33</v>
+      </c>
+      <c r="B126" t="s">
+        <v>283</v>
+      </c>
+      <c r="C126" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>33</v>
+      </c>
+      <c r="B127" t="s">
+        <v>285</v>
+      </c>
+      <c r="C127" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>33</v>
+      </c>
+      <c r="B128" t="s">
+        <v>287</v>
+      </c>
+      <c r="C128" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>33</v>
+      </c>
+      <c r="B129" t="s">
+        <v>289</v>
+      </c>
+      <c r="C129" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>33</v>
+      </c>
+      <c r="B130" t="s">
+        <v>291</v>
+      </c>
+      <c r="C130" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>33</v>
+      </c>
+      <c r="B131" t="s">
+        <v>293</v>
+      </c>
+      <c r="C131" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>33</v>
+      </c>
+      <c r="B132" t="s">
+        <v>295</v>
+      </c>
+      <c r="C132" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>33</v>
+      </c>
+      <c r="B133" t="s">
+        <v>297</v>
+      </c>
+      <c r="C133" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>33</v>
+      </c>
+      <c r="B134" t="s">
+        <v>301</v>
+      </c>
+      <c r="C134" t="s">
+        <v>302</v>
+      </c>
+      <c r="D134" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>33</v>
+      </c>
+      <c r="B135" t="s">
+        <v>299</v>
+      </c>
+      <c r="C135" t="s">
+        <v>300</v>
+      </c>
+      <c r="D135" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>33</v>
+      </c>
+      <c r="B136" t="s">
+        <v>25</v>
+      </c>
+      <c r="C136" t="s">
+        <v>26</v>
+      </c>
+      <c r="D136" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>33</v>
+      </c>
+      <c r="B137" t="s">
+        <v>27</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>33</v>
+      </c>
+      <c r="B138" t="s">
+        <v>29</v>
+      </c>
+      <c r="C138" t="s">
+        <v>30</v>
+      </c>
+      <c r="D138" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>33</v>
+      </c>
+      <c r="B139" t="s">
+        <v>34</v>
+      </c>
+      <c r="C139" t="s">
+        <v>35</v>
+      </c>
+      <c r="D139" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>33</v>
+      </c>
+      <c r="B140" t="s">
+        <v>36</v>
+      </c>
+      <c r="C140" t="s">
+        <v>37</v>
+      </c>
+      <c r="D140" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Variables_of_importance.xlsx
+++ b/Variables_of_importance.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tay_w\Documents\GitHub\IND5003-Group-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan\Documents\GitHub\IND5003-Group-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED805D4-582B-4A09-9721-D84E23F47790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53BE16E-80ED-4706-A4C9-D8BDA090F6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4B6DA73-DEED-49E8-8A55-61AFB6DEB1A7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{B4B6DA73-DEED-49E8-8A55-61AFB6DEB1A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Physical Activity Indicator" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="215">
   <si>
     <t>Code</t>
   </si>
@@ -631,6 +632,45 @@
   </si>
   <si>
     <t>Weight change summary stat</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Vigorous Intensity</t>
+  </si>
+  <si>
+    <t>Moderate Intensity</t>
+  </si>
+  <si>
+    <t>Light Intensity</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>Recreation</t>
+  </si>
+  <si>
+    <t>Sitting</t>
+  </si>
+  <si>
+    <t>Activity &gt;60min</t>
+  </si>
+  <si>
+    <t>TV Use</t>
+  </si>
+  <si>
+    <t>Computer Use</t>
   </si>
 </sst>
 </file>
@@ -686,11 +726,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,19 +1048,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716A7EE8-5A97-4A9E-B2AD-A8EFFA1D3E8E}">
   <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="142.7109375" customWidth="1"/>
-    <col min="4" max="4" width="92.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="142.7265625" customWidth="1"/>
+    <col min="4" max="4" width="92.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1033,7 +1074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1047,7 +1088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1061,7 +1102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1075,7 +1116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1089,7 +1130,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1103,7 +1144,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1114,7 +1155,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1128,7 +1169,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1139,7 +1180,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1150,7 +1191,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1161,7 +1202,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1172,7 +1213,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1183,7 +1224,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1192,7 +1233,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1201,7 +1242,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1212,7 +1253,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1226,7 +1267,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -1240,7 +1281,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1254,7 +1295,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -1268,7 +1309,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -1282,7 +1323,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -1296,7 +1337,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -1310,7 +1351,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -1324,7 +1365,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1338,7 +1379,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1352,7 +1393,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -1366,7 +1407,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -1380,7 +1421,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1391,7 +1432,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1405,7 +1446,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1419,7 +1460,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1433,7 +1474,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1447,7 +1488,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1461,7 +1502,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -1475,7 +1516,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -1489,7 +1530,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -1503,7 +1544,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -1517,7 +1558,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -1531,7 +1572,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -1545,7 +1586,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -1559,7 +1600,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -1573,7 +1614,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -1587,13 +1628,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -1607,7 +1648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -1621,7 +1662,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>31</v>
       </c>
@@ -1635,7 +1676,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -1649,7 +1690,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -1663,7 +1704,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -1677,7 +1718,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>31</v>
       </c>
@@ -1691,7 +1732,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -1705,7 +1746,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -1719,7 +1760,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -1733,7 +1774,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -1747,7 +1788,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>31</v>
       </c>
@@ -1761,13 +1802,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B57" s="3"/>
       <c r="C57" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -1778,7 +1819,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>31</v>
       </c>
@@ -1789,7 +1830,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -1800,7 +1841,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>31</v>
       </c>
@@ -1811,7 +1852,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>31</v>
       </c>
@@ -1822,7 +1863,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>31</v>
       </c>
@@ -1833,7 +1874,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -1844,7 +1885,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>31</v>
       </c>
@@ -1855,7 +1896,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>31</v>
       </c>
@@ -1866,7 +1907,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>31</v>
       </c>
@@ -1877,7 +1918,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -1888,7 +1929,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>31</v>
       </c>
@@ -1899,7 +1940,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>31</v>
       </c>
@@ -1910,7 +1951,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>31</v>
       </c>
@@ -1921,7 +1962,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>31</v>
       </c>
@@ -1932,7 +1973,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>31</v>
       </c>
@@ -1943,7 +1984,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>31</v>
       </c>
@@ -1954,7 +1995,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>31</v>
       </c>
@@ -1965,7 +2006,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>31</v>
       </c>
@@ -1976,13 +2017,13 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B77" s="3"/>
       <c r="C77" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>31</v>
       </c>
@@ -1996,7 +2037,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>31</v>
       </c>
@@ -2010,7 +2051,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -2024,13 +2065,13 @@
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B81" s="3"/>
       <c r="C81" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>31</v>
       </c>
@@ -2044,7 +2085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -2058,7 +2099,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>34</v>
       </c>
@@ -2069,7 +2110,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B85" s="3"/>
       <c r="C85" s="3" t="s">
         <v>201</v>
@@ -2079,4 +2120,428 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB70F0A3-C5F6-4675-89FB-258EF444123F}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="85.36328125" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Variables_of_importance.xlsx
+++ b/Variables_of_importance.xlsx
@@ -8,25 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan\Documents\GitHub\IND5003-Group-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53BE16E-80ED-4706-A4C9-D8BDA090F6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8342EECD-05F9-4C97-BCA7-3D70A43A765C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{B4B6DA73-DEED-49E8-8A55-61AFB6DEB1A7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{B4B6DA73-DEED-49E8-8A55-61AFB6DEB1A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Physical Activity Indicator" sheetId="2" r:id="rId2"/>
+    <sheet name="Compiled_PA_Ind" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="218">
   <si>
     <t>Code</t>
   </si>
@@ -671,13 +681,22 @@
   </si>
   <si>
     <t>Computer Use</t>
+  </si>
+  <si>
+    <t>If PAQ605 or PAQ650 =1</t>
+  </si>
+  <si>
+    <t>If PAQ605 OR PAQ650 &lt;&gt;1, If PAQ620 OR PAQ665 =1</t>
+  </si>
+  <si>
+    <t>else</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,6 +708,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -726,12 +752,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716A7EE8-5A97-4A9E-B2AD-A8EFFA1D3E8E}">
   <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2126,7 +2153,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB70F0A3-C5F6-4675-89FB-258EF444123F}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2154,7 +2183,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -2174,7 +2203,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -2194,7 +2223,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2214,7 +2243,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -2234,7 +2263,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -2254,7 +2283,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2274,7 +2303,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -2294,7 +2323,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2314,7 +2343,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2334,7 +2363,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -2354,7 +2383,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -2374,7 +2403,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -2394,7 +2423,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -2414,7 +2443,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -2434,7 +2463,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2454,7 +2483,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2474,7 +2503,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -2494,7 +2523,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2514,7 +2543,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2534,7 +2563,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
         <v>199</v>
@@ -2544,4 +2573,214 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B428FF4B-AD31-4CD5-B3CC-E7F4B6AB43C7}">
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="M3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Variables_of_importance.xlsx
+++ b/Variables_of_importance.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tay_w\Documents\GitHub\IND5003-Group-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan\Documents\GitHub\IND5003-Group-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED805D4-582B-4A09-9721-D84E23F47790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37669E0F-B5C1-4B7B-94DA-34EEF48904E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4B6DA73-DEED-49E8-8A55-61AFB6DEB1A7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B4B6DA73-DEED-49E8-8A55-61AFB6DEB1A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="200">
   <si>
     <t>Code</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Alcohol (gm)</t>
   </si>
   <si>
-    <t>DR1_320Z</t>
-  </si>
-  <si>
     <t>Total plain water drank yesterday - including plain tap water, water from a drinking fountain, water from a water cooler, bottled water, and spring water.</t>
   </si>
   <si>
@@ -567,15 +564,6 @@
     <t>3093 readings</t>
   </si>
   <si>
-    <t xml:space="preserve">PHAFSTMN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total length of 'food fast', minutes </t>
-  </si>
-  <si>
-    <t>To attenuate fasting glucose levels (LBDGLUSI)</t>
-  </si>
-  <si>
     <t xml:space="preserve">LBXVIDMS </t>
   </si>
   <si>
@@ -631,6 +619,12 @@
   </si>
   <si>
     <t>Weight change summary stat</t>
+  </si>
+  <si>
+    <t>DR1.320Z</t>
+  </si>
+  <si>
+    <t>PHAFSTMN.x</t>
   </si>
 </sst>
 </file>
@@ -1005,21 +999,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716A7EE8-5A97-4A9E-B2AD-A8EFFA1D3E8E}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="142.7109375" customWidth="1"/>
-    <col min="4" max="4" width="92.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="142.7265625" customWidth="1"/>
+    <col min="4" max="4" width="92.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,13 +1021,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1047,7 +1041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1061,7 +1055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1075,7 +1069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1089,7 +1083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1103,7 +1097,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1114,7 +1108,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1128,7 +1122,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1139,7 +1133,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1150,7 +1144,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1161,7 +1155,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1172,7 +1166,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1183,25 +1177,25 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1212,871 +1206,857 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>49</v>
       </c>
       <c r="B17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" t="s">
         <v>53</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>54</v>
       </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>57</v>
       </c>
-      <c r="D18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" t="s">
         <v>180</v>
       </c>
-      <c r="C20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D23" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D25" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C26" s="3" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="D26" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>185</v>
       </c>
       <c r="D27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D35" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>78</v>
+      <c r="B36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>31</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>31</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>31</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D42" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D43" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C44" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>14</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>31</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D47" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>31</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D48" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>31</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D49" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>31</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D50" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>31</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D51" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>31</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D52" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>31</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D53" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>31</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D54" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>31</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D55" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D56" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>31</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>31</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>31</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>31</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>31</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>31</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>31</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>31</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>31</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>31</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>31</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>31</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>31</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>31</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>31</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>31</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>31</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>31</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>31</v>
-      </c>
-      <c r="B76" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C76" s="2" t="s">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="3"/>
-      <c r="C77" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>31</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D78" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>31</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="D79" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>31</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D80" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="3"/>
-      <c r="C81" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B80" s="3"/>
+      <c r="C80" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>31</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D82" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D83" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>34</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C84" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="3"/>
-      <c r="C85" s="3" t="s">
-        <v>201</v>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Variables_of_importance.xlsx
+++ b/Variables_of_importance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan\Documents\GitHub\IND5003-Group-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tay_w\Documents\GitHub\IND5003-Group-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37669E0F-B5C1-4B7B-94DA-34EEF48904E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF09BCBC-FFE1-4AD9-9E7F-8198D28963C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B4B6DA73-DEED-49E8-8A55-61AFB6DEB1A7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4B6DA73-DEED-49E8-8A55-61AFB6DEB1A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="178">
   <si>
     <t>Code</t>
   </si>
@@ -189,9 +189,6 @@
     <t>Total plain water drank yesterday - including plain tap water, water from a drinking fountain, water from a water cooler, bottled water, and spring water.</t>
   </si>
   <si>
-    <t>Water intake</t>
-  </si>
-  <si>
     <t>LBDGLTSI</t>
   </si>
   <si>
@@ -207,12 +204,6 @@
     <t>Fasting Glucose (mmol/L)</t>
   </si>
   <si>
-    <t>3172 readings</t>
-  </si>
-  <si>
-    <t>2345 readings</t>
-  </si>
-  <si>
     <t>DIQ160</t>
   </si>
   <si>
@@ -285,39 +276,6 @@
     <t>The next questions are about SNAP, the Supplemental Nutrition Assistance Program, formerly known as the Food Stamp Program. SNAP benefits are provided on an electronic debit card {or EBT card} {called the DISPLAY STATE NAME FOR EBT CARD}} card in STATE}. Have {you/you or anyone in your household} ever received SNAP or Food Stamp benefits?</t>
   </si>
   <si>
-    <t>FSQ012</t>
-  </si>
-  <si>
-    <t>In the last 12 months, did {you/you or any member of your household} receive SNAP or Food Stamp benefits?</t>
-  </si>
-  <si>
-    <t>FSD012N</t>
-  </si>
-  <si>
-    <t>In the last 12 months, how many people in your household received SNAP or Food Stamp benefits?</t>
-  </si>
-  <si>
-    <t>FSD230</t>
-  </si>
-  <si>
-    <t>{Do you/Does any member of your household} currently receive SNAP or Food Stamp benefits?</t>
-  </si>
-  <si>
-    <t>FSD225</t>
-  </si>
-  <si>
-    <t>Number of days between the time the household last received Food Stamp benefit and the date of interview.</t>
-  </si>
-  <si>
-    <t>FSQ235</t>
-  </si>
-  <si>
-    <t>How much did {you/your household} receive in food stamp benefits the last time you got them? ENTER DOLLAR AMOUNT.</t>
-  </si>
-  <si>
-    <t>Indicative of SES status</t>
-  </si>
-  <si>
     <t>DBQ700</t>
   </si>
   <si>
@@ -486,12 +444,6 @@
     <t>The following question is about sitting at school, at home, getting to and from places, or with friends including time spent sitting at a desk, traveling in a car or bus, reading, playing cards, watching television, or using a computer. Do not include time spent sleeping. How much time {do you/does SP} usually spend sitting on a typical day?</t>
   </si>
   <si>
-    <t>PAQ706</t>
-  </si>
-  <si>
-    <t>I'd like to ask you some questions about {your/SP's} activities. During the past 7 days, on how many days {were you/was SP} physically active for a total of at least 60 minutes per day? Add up all the time {you/he/she} spent in any kind of physical activity that increased {your/his/her} heart rate and made {you/him/her} breathe hard some of the time.</t>
-  </si>
-  <si>
     <t>PAQ710</t>
   </si>
   <si>
@@ -528,24 +480,6 @@
     <t>Direct HDL-Cholesterol (mmol/L)</t>
   </si>
   <si>
-    <t xml:space="preserve">LBDTRSI </t>
-  </si>
-  <si>
-    <t>Triglyceride (mmol/L)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LBDLDLSI </t>
-  </si>
-  <si>
-    <t>LDL-cholesterol (mmol/L)</t>
-  </si>
-  <si>
-    <t>3105 readings</t>
-  </si>
-  <si>
-    <t>3146 readings</t>
-  </si>
-  <si>
     <t>7624 readings</t>
   </si>
   <si>
@@ -555,15 +489,6 @@
     <t>Total Cholesterol( mmol/L)</t>
   </si>
   <si>
-    <t xml:space="preserve">LBXIN </t>
-  </si>
-  <si>
-    <t>Insulin (uU/mL)</t>
-  </si>
-  <si>
-    <t>3093 readings</t>
-  </si>
-  <si>
     <t xml:space="preserve">LBXVIDMS </t>
   </si>
   <si>
@@ -573,12 +498,6 @@
     <t>Vitamin D levels 25OHD2+25OHD3 (nmol/L)</t>
   </si>
   <si>
-    <t>Total length of 'food fast', minutes</t>
-  </si>
-  <si>
-    <t>To attenuate fasting insulin levels (LBXIN)</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -603,18 +522,9 @@
     <t>6469 readings Self-perceived diabetes risk</t>
   </si>
   <si>
-    <t>1338 readings</t>
-  </si>
-  <si>
-    <t>SES Status based on FSD151 - FSQ235</t>
-  </si>
-  <si>
     <t>Mental Health Questionnaire</t>
   </si>
   <si>
-    <t>Physical Activity Stat?</t>
-  </si>
-  <si>
     <t>Self-perception summary stat</t>
   </si>
   <si>
@@ -624,7 +534,31 @@
     <t>DR1.320Z</t>
   </si>
   <si>
-    <t>PHAFSTMN.x</t>
+    <t>6413 readings</t>
+  </si>
+  <si>
+    <t>6568 readings</t>
+  </si>
+  <si>
+    <t>1338 readings - One hot encoding</t>
+  </si>
+  <si>
+    <t>Indicative of SES status ~6000 entries</t>
+  </si>
+  <si>
+    <t>SES Status based on FSD151 - FSQ165</t>
+  </si>
+  <si>
+    <t>2345 readings (Leave till after models are developed - Test out with smaller dataset)</t>
+  </si>
+  <si>
+    <t>3172 readings (Leave till after models are developed - Test out with smaller dataset)</t>
+  </si>
+  <si>
+    <t>Physical Activity Stat</t>
+  </si>
+  <si>
+    <t>6084 readings - Water intake</t>
   </si>
 </sst>
 </file>
@@ -648,7 +582,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -667,6 +601,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -680,11 +620,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -999,21 +940,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716A7EE8-5A97-4A9E-B2AD-A8EFFA1D3E8E}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="142.7265625" customWidth="1"/>
-    <col min="4" max="4" width="92.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="144.85546875" customWidth="1"/>
+    <col min="4" max="4" width="92.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1021,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1041,7 +982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1055,7 +996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1069,7 +1010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1083,7 +1024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1097,7 +1038,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1107,8 +1048,11 @@
       <c r="C7" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1122,7 +1066,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1133,7 +1077,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1144,7 +1088,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1155,7 +1099,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1166,7 +1110,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1177,25 +1121,31 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+      <c r="D14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+      <c r="D15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1206,669 +1156,640 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
-      <c r="B17" t="s">
-        <v>198</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="C18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>56</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B20" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="C25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D22" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="3" t="s">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D51" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>31</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D54" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D55" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B56" s="3"/>
-      <c r="C56" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>31</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>31</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>31</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>31</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>31</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>31</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>31</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>31</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>31</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+      <c r="D67" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -1878,181 +1799,73 @@
       <c r="C68" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D68" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>31</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>31</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="D69" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>31</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>31</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="D72" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>31</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>31</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B76" s="3"/>
-      <c r="C76" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>31</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D77" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>31</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D78" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>31</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D79" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B80" s="3"/>
-      <c r="C80" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>31</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D81" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>31</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D82" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>34</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C83" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B84" s="3"/>
-      <c r="C84" s="3" t="s">
-        <v>197</v>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Variables_of_importance.xlsx
+++ b/Variables_of_importance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tay_w\Documents\GitHub\IND5003-Group-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF09BCBC-FFE1-4AD9-9E7F-8198D28963C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949AECDA-7EAD-4144-A8D1-97D12CE7460B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4B6DA73-DEED-49E8-8A55-61AFB6DEB1A7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="180">
   <si>
     <t>Code</t>
   </si>
@@ -559,6 +559,12 @@
   </si>
   <si>
     <t>6084 readings - Water intake</t>
+  </si>
+  <si>
+    <t>HSD010</t>
+  </si>
+  <si>
+    <t>General health condition</t>
   </si>
 </sst>
 </file>
@@ -940,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716A7EE8-5A97-4A9E-B2AD-A8EFFA1D3E8E}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,23 +1824,20 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="3"/>
-      <c r="C70" s="3" t="s">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>31</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D71" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1842,29 +1845,43 @@
         <v>31</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>34</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="3"/>
-      <c r="C74" s="3" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3" t="s">
         <v>167</v>
       </c>
     </row>

--- a/Variables_of_importance.xlsx
+++ b/Variables_of_importance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tay_w\Documents\GitHub\IND5003-Group-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949AECDA-7EAD-4144-A8D1-97D12CE7460B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B71D34-E52C-40DB-BF09-ED77E5478BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4B6DA73-DEED-49E8-8A55-61AFB6DEB1A7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="181">
   <si>
     <t>Code</t>
   </si>
@@ -345,9 +345,6 @@
     <t>Mental health - Tabulate into mental health score and correlate with diabetes</t>
   </si>
   <si>
-    <t>Increased risk as identified by health professional</t>
-  </si>
-  <si>
     <t>PAQ605</t>
   </si>
   <si>
@@ -519,9 +516,6 @@
     <t>6464 readings Self-perceived dietary quality</t>
   </si>
   <si>
-    <t>6469 readings Self-perceived diabetes risk</t>
-  </si>
-  <si>
     <t>Mental Health Questionnaire</t>
   </si>
   <si>
@@ -540,9 +534,6 @@
     <t>6568 readings</t>
   </si>
   <si>
-    <t>1338 readings - One hot encoding</t>
-  </si>
-  <si>
     <t>Indicative of SES status ~6000 entries</t>
   </si>
   <si>
@@ -565,6 +556,57 @@
   </si>
   <si>
     <t>General health condition</t>
+  </si>
+  <si>
+    <r>
+      <t>6469 readings Self-perceived diabetes risk</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Not applicable - Question was asked to people without diabetes)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1338 readings - One hot encoding</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Not applicable - Question was asked to people without diabetes)</t>
+    </r>
+  </si>
+  <si>
+    <t>(Not applicable - Question was only asked to people without diabetes)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Increased risk as identified by health professional </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Not applicable - Question was only asked to people without diabetes)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -588,7 +630,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,6 +655,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -626,12 +674,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -948,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716A7EE8-5A97-4A9E-B2AD-A8EFFA1D3E8E}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -1055,7 +1104,7 @@
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1133,10 +1182,10 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1145,10 +1194,10 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1167,13 +1216,13 @@
         <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1187,7 +1236,7 @@
         <v>55</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1201,7 +1250,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1209,13 +1258,13 @@
         <v>56</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" t="s">
         <v>150</v>
-      </c>
-      <c r="D20" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1223,13 +1272,13 @@
         <v>56</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1237,13 +1286,13 @@
         <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" t="s">
         <v>154</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D22" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1251,66 +1300,69 @@
         <v>56</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" t="s">
         <v>159</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D23" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>60</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1380,7 +1432,7 @@
         <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1394,13 +1446,13 @@
         <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1574,7 +1626,7 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1582,10 +1634,10 @@
         <v>31</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1593,10 +1645,10 @@
         <v>31</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1604,10 +1656,10 @@
         <v>31</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1615,10 +1667,10 @@
         <v>31</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1626,10 +1678,10 @@
         <v>31</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1637,10 +1689,10 @@
         <v>31</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1648,10 +1700,10 @@
         <v>31</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1659,10 +1711,10 @@
         <v>31</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1670,10 +1722,10 @@
         <v>31</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1681,10 +1733,10 @@
         <v>31</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1692,10 +1744,10 @@
         <v>31</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1703,10 +1755,10 @@
         <v>31</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1714,10 +1766,10 @@
         <v>31</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1725,10 +1777,10 @@
         <v>31</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1736,10 +1788,10 @@
         <v>31</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1747,10 +1799,10 @@
         <v>31</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1758,10 +1810,10 @@
         <v>31</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1769,16 +1821,16 @@
         <v>31</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1786,13 +1838,13 @@
         <v>31</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" t="s">
         <v>146</v>
-      </c>
-      <c r="D67" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1800,13 +1852,13 @@
         <v>31</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="D68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1820,7 +1872,7 @@
         <v>84</v>
       </c>
       <c r="D69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1828,16 +1880,16 @@
         <v>31</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1882,7 +1934,7 @@
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Variables_of_importance.xlsx
+++ b/Variables_of_importance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tay_w\Documents\GitHub\IND5003-Group-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B71D34-E52C-40DB-BF09-ED77E5478BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2208F7F7-397E-44F3-AEE9-65A2A647F8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4B6DA73-DEED-49E8-8A55-61AFB6DEB1A7}"/>
   </bookViews>
@@ -998,7 +998,7 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,10 +1027,10 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
@@ -1041,10 +1041,10 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
@@ -1932,8 +1932,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="3"/>
-      <c r="C75" s="3" t="s">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4" t="s">
         <v>165</v>
       </c>
     </row>
